--- a/com.DataConsolidation/src/test/resources/wales_invalid.xlsx
+++ b/com.DataConsolidation/src/test/resources/wales_invalid.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tracing-Data-Consolidation-Tool\com.DataConsolidation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tracing-Data-Consolidation-Tool-master\com.DataConsolidation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE913779-C358-414A-AEF0-1229DD6DA9F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31E3245-3F6F-493B-92CA-8C184488F754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3278" yWindow="3278" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Wrong Headings" sheetId="1" r:id="rId1"/>
+    <sheet name="Column Name Typo" sheetId="1" r:id="rId1"/>
+    <sheet name="Missing Column" sheetId="2" r:id="rId2"/>
+    <sheet name="Duplicate Column Name" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,32 +27,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From CPH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>To CPH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>AB256527</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>From CPH</t>
+  </si>
+  <si>
+    <t>To CPH</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>reason:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AB256527</t>
-  </si>
-  <si>
-    <t>Ref</t>
+    <t>Lott</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typo in column E heading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column G is duplicated in H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missing 'Created By'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,6 +105,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,9 +129,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -391,37 +420,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="36.06640625" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" customWidth="1"/>
+    <col min="9" max="9" width="12.06640625" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -429,4 +476,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C7E459-5D77-4BE6-B309-DD8546BD201B}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.06640625" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F0B8C1-7ABB-460B-9684-8317F59A2471}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.DataConsolidation/src/test/resources/wales_invalid.xlsx
+++ b/com.DataConsolidation/src/test/resources/wales_invalid.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tracing-Data-Consolidation-Tool-master\com.DataConsolidation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tracing-Data-Consolidation-Tool\com.DataConsolidation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31E3245-3F6F-493B-92CA-8C184488F754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78A2729-FF5F-4B47-989B-504F0F7EBB42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="1965" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Column Name Typo" sheetId="1" r:id="rId1"/>
-    <sheet name="Missing Column" sheetId="2" r:id="rId2"/>
-    <sheet name="Duplicate Column Name" sheetId="3" r:id="rId3"/>
+    <sheet name="Duplicate Column Name" sheetId="4" r:id="rId1"/>
+    <sheet name="Column Name Typo" sheetId="1" r:id="rId2"/>
+    <sheet name="Missing Column" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>To CPH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,11 +69,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Column G is duplicated in H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>missing 'Created By'</t>
+    <t>Lot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From CPH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missing 'Species'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created By</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column G is duplicate in H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,57 +431,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D79FEBD-34E1-4233-BB69-0771789357A5}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.06640625" customWidth="1"/>
-    <col min="7" max="7" width="9.86328125" customWidth="1"/>
-    <col min="9" max="9" width="12.06640625" customWidth="1"/>
-    <col min="13" max="13" width="7.796875" customWidth="1"/>
+    <col min="1" max="1" width="23.46484375" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -479,11 +496,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.86328125" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" customWidth="1"/>
+    <col min="9" max="9" width="12.06640625" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C7E459-5D77-4BE6-B309-DD8546BD201B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -503,25 +580,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -530,69 +607,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F0B8C1-7ABB-460B-9684-8317F59A2471}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>